--- a/Gráficos/Evi_DatasCultura.xlsx
+++ b/Gráficos/Evi_DatasCultura.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paloschi\Dropbox\LEA (Laboratório de Estatística Aplicada)\6-Rennan\Dissertacao\Gráficos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4590"/>
   </bookViews>
@@ -23,7 +18,6 @@
     <definedName name="_xlchart.4" hidden="1">satveg_planilha!$C$4:$C$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -54,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,25 +598,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -653,7 +636,7 @@
             <c:numRef>
               <c:f>satveg_planilha!$A$4:$A$53</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>41888</c:v>
@@ -913,8 +896,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E5B3-4ED3-9742-CF2AE67094AB}"/>
             </c:ext>
@@ -950,7 +932,7 @@
             <c:numRef>
               <c:f>satveg_planilha!$A$4:$A$53</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>41888</c:v>
@@ -1114,8 +1096,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E5B3-4ED3-9742-CF2AE67094AB}"/>
             </c:ext>
@@ -1149,10 +1130,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="12"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="57150" cap="rnd">
                 <a:solidFill>
@@ -1162,7 +1139,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-E5B3-4ED3-9742-CF2AE67094AB}"/>
               </c:ext>
@@ -1172,7 +1149,7 @@
             <c:numRef>
               <c:f>satveg_planilha!$A$4:$A$53</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>41888</c:v>
@@ -1345,8 +1322,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E5B3-4ED3-9742-CF2AE67094AB}"/>
             </c:ext>
@@ -1382,7 +1358,7 @@
             <c:numRef>
               <c:f>satveg_planilha!$A$4:$A$53</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>41888</c:v>
@@ -1543,35 +1519,24 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E5B3-4ED3-9742-CF2AE67094AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="376746640"/>
-        <c:axId val="376744976"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="80639488"/>
+        <c:axId val="80641024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="376746640"/>
+        <c:axId val="80639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1603,18 +1568,17 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376744976"/>
+        <c:crossAx val="80641024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="376744976"/>
+        <c:axId val="80641024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1671,7 +1635,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1679,27 +1642,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1725,7 +1670,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376746640"/>
+        <c:crossAx val="80639488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1740,7 +1685,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1768,7 +1712,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1797,32 +1740,21 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1853,7 +1785,7 @@
             <c:numRef>
               <c:f>satveg_planilha!$A$4:$A$53</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>41888</c:v>
@@ -2113,8 +2045,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-09C5-4C87-BF4D-EBF049771763}"/>
             </c:ext>
@@ -2150,7 +2081,7 @@
             <c:numRef>
               <c:f>satveg_planilha!$A$4:$A$53</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>41888</c:v>
@@ -2314,8 +2245,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-09C5-4C87-BF4D-EBF049771763}"/>
             </c:ext>
@@ -2349,10 +2279,6 @@
           </c:marker>
           <c:dPt>
             <c:idx val="12"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:ln w="57150" cap="rnd">
                 <a:solidFill>
@@ -2362,7 +2288,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-09C5-4C87-BF4D-EBF049771763}"/>
               </c:ext>
@@ -2372,7 +2298,7 @@
             <c:numRef>
               <c:f>satveg_planilha!$A$4:$A$53</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>41888</c:v>
@@ -2545,8 +2471,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-09C5-4C87-BF4D-EBF049771763}"/>
             </c:ext>
@@ -2582,7 +2507,7 @@
             <c:numRef>
               <c:f>satveg_planilha!$A$4:$A$53</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>dd-mm-yy</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>41888</c:v>
@@ -2743,35 +2668,42 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-09C5-4C87-BF4D-EBF049771763}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="376746640"/>
-        <c:axId val="376744976"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="82435072"/>
+        <c:axId val="81269504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="376746640"/>
+        <c:axId val="82435072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Datas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="dd-mm-yy" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2803,18 +2735,17 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376744976"/>
+        <c:crossAx val="81269504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="376744976"/>
+        <c:axId val="81269504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2871,7 +2802,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2879,27 +2809,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="pt-BR"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2925,7 +2837,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376746640"/>
+        <c:crossAx val="82435072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2940,7 +2852,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2968,7 +2879,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2992,10 +2902,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -4115,16 +4025,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>54670</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>102295</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4150,16 +4060,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>100330</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4168,8 +4078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5543550" cy="3338830"/>
+          <a:off x="2061341" y="828675"/>
+          <a:ext cx="5555375" cy="3338830"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="5543550" cy="3338830"/>
         </a:xfrm>
@@ -4350,7 +4260,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2667000" y="1543050"/>
+            <a:off x="2676525" y="1419225"/>
             <a:ext cx="314325" cy="323850"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
@@ -4396,7 +4306,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5048250" y="1514475"/>
+            <a:off x="5086350" y="1381125"/>
             <a:ext cx="314325" cy="323850"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
@@ -4442,7 +4352,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="752475" y="1666875"/>
+            <a:off x="714375" y="1504950"/>
             <a:ext cx="314325" cy="323850"/>
           </a:xfrm>
           <a:prstGeom prst="ellipse">
@@ -4683,7 +4593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4718,7 +4628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4895,29 +4805,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4926,12 +4836,12 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4948,7 +4858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>41888</v>
       </c>
@@ -4959,7 +4869,7 @@
         <v>0.1208</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>41896</v>
       </c>
@@ -4970,7 +4880,7 @@
         <v>0.11219999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>41904</v>
       </c>
@@ -4981,7 +4891,7 @@
         <v>0.1024</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>41912</v>
       </c>
@@ -4992,7 +4902,7 @@
         <v>0.1023</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>41920</v>
       </c>
@@ -5003,7 +4913,7 @@
         <v>0.1113</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>41928</v>
       </c>
@@ -5014,7 +4924,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>41936</v>
       </c>
@@ -5022,7 +4932,7 @@
         <v>0.27739999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>41944</v>
       </c>
@@ -5030,7 +4940,7 @@
         <v>0.41570000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>41952</v>
       </c>
@@ -5038,7 +4948,7 @@
         <v>0.55840000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>41960</v>
       </c>
@@ -5049,7 +4959,7 @@
         <v>0.64859999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>41968</v>
       </c>
@@ -5060,7 +4970,7 @@
         <v>0.72450000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>41976</v>
       </c>
@@ -5071,7 +4981,7 @@
         <v>0.70569999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>41984</v>
       </c>
@@ -5082,7 +4992,7 @@
         <v>0.68859999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>41992</v>
       </c>
@@ -5093,7 +5003,7 @@
         <v>0.70620000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>42000</v>
       </c>
@@ -5101,7 +5011,7 @@
         <v>0.65849999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>42005</v>
       </c>
@@ -5112,7 +5022,7 @@
         <v>0.59570000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>42013</v>
       </c>
@@ -5123,7 +5033,7 @@
         <v>0.47120000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>42021</v>
       </c>
@@ -5134,7 +5044,7 @@
         <v>0.33829999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>42029</v>
       </c>
@@ -5146,7 +5056,7 @@
       </c>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>42037</v>
       </c>
@@ -5157,7 +5067,7 @@
         <v>0.13250000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>42045</v>
       </c>
@@ -5168,7 +5078,7 @@
         <v>0.1691</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>42053</v>
       </c>
@@ -5176,7 +5086,7 @@
         <v>0.2843</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>42061</v>
       </c>
@@ -5184,7 +5094,7 @@
         <v>0.39810000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>42069</v>
       </c>
@@ -5195,7 +5105,7 @@
         <v>0.50529999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>42077</v>
       </c>
@@ -5206,7 +5116,7 @@
         <v>0.55959999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>42085</v>
       </c>
@@ -5217,7 +5127,7 @@
         <v>0.59899999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>42093</v>
       </c>
@@ -5228,7 +5138,7 @@
         <v>0.57850000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>42101</v>
       </c>
@@ -5239,7 +5149,7 @@
         <v>0.58440000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>42109</v>
       </c>
@@ -5250,7 +5160,7 @@
         <v>0.56230000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>42117</v>
       </c>
@@ -5261,7 +5171,7 @@
         <v>0.56100000000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>42125</v>
       </c>
@@ -5269,7 +5179,7 @@
         <v>0.55600000000000005</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>42133</v>
       </c>
@@ -5277,7 +5187,7 @@
         <v>0.5393</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>42141</v>
       </c>
@@ -5288,7 +5198,7 @@
         <v>0.49430000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>42149</v>
       </c>
@@ -5299,7 +5209,7 @@
         <v>0.42280000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>42157</v>
       </c>
@@ -5310,7 +5220,7 @@
         <v>0.36030000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>42165</v>
       </c>
@@ -5321,7 +5231,7 @@
         <v>0.29509999999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>42173</v>
       </c>
@@ -5332,7 +5242,7 @@
         <v>0.22889999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>42181</v>
       </c>
@@ -5340,7 +5250,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>42189</v>
       </c>
@@ -5348,7 +5258,7 @@
         <v>0.17519999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>42197</v>
       </c>
@@ -5356,7 +5266,7 @@
         <v>0.16209999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42205</v>
       </c>
@@ -5364,31 +5274,31 @@
         <v>0.1565</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1"/>
     </row>
   </sheetData>
@@ -5399,16 +5309,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="3"/>
     </row>
   </sheetData>
